--- a/DOC/05作成資料/20成果物/020_FD/サーバ/設計資料.xlsx
+++ b/DOC/05作成資料/20成果物/020_FD/サーバ/設計資料.xlsx
@@ -579,11 +579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79340288"/>
-        <c:axId val="79341824"/>
+        <c:axId val="95025792"/>
+        <c:axId val="95293824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79340288"/>
+        <c:axId val="95025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,14 +593,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79341824"/>
+        <c:crossAx val="95293824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79341824"/>
+        <c:axId val="95293824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79340288"/>
+        <c:crossAx val="95025792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,7 +755,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="943976" cy="275717"/>
+    <xdr:ext cx="808426" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -764,7 +764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1200150" y="933450"/>
-          <a:ext cx="943976" cy="275717"/>
+          <a:ext cx="808426" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,7 +793,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザー名：</a:t>
+            <a:t>ユーザ名：</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9386,14 +9386,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>197</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -9404,7 +9404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="20774025"/>
+          <a:off x="2895600" y="33804225"/>
           <a:ext cx="962025" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9438,66 +9438,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3257550" y="20774025"/>
-          <a:ext cx="962025" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9796,8 +9736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M191" sqref="M191"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
